--- a/GroiroServices/services/reports/informatsionno-bibliotechnyij-tsentr_-.xlsx
+++ b/GroiroServices/services/reports/informatsionno-bibliotechnyij-tsentr_-.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,14 +465,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Печать А4</t>
+          <t xml:space="preserve">Запись информации на флеш-карту до 350 Мб </t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="3">
@@ -481,14 +481,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Печать с файлом222</t>
+          <t xml:space="preserve">Запись информации на флеш-карту от 1 Гб до 4 Гб </t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -497,29 +497,845 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Запись на флеш-карту</t>
+          <t xml:space="preserve">Распечатка текста с любого носителя цифровой информации </t>
         </is>
       </c>
       <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45168</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Набор и редактирование текста любой сложности (без распечатки) </t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45168</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Прием/отправка файлов по электронной почте (до 10 Мб) </t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45168</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Запись информации на флеш-карту до 350 Мб </t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45168</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Распечатка текста с любого носителя цифровой информации </t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D8" t="n">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45169</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Набор и редактирование текста любой сложности (без распечатки) </t>
+        </is>
+      </c>
+      <c r="C9" t="n">
         <v>5</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D9" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45169</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Распечатка текста с любого носителя цифровой информации </t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>198</v>
+      </c>
+      <c r="D10" t="n">
+        <v>59.4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Распечатка текста с любого носителя цифровой информации (с предоставлением файла-вкладыша) </t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>12</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Набор и редактирование текста любой сложности (без распечатки) </t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Прием/отправка файлов по электронной почте (до 10 Мб) </t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Запись информации на флеш-карту до 350 Мб </t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>6</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Распечатка текста с любого носителя цифровой информации </t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>432</v>
+      </c>
+      <c r="D15" t="n">
+        <v>129.6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45175</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Двустороння распечатка текста с любого носителя цифровой информации </t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>24</v>
+      </c>
+      <c r="D16" t="n">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45175</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Запись информации на флеш-карту до 350 Мб </t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>7</v>
+      </c>
+      <c r="D17" t="n">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45175</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Распечатка текста с любого носителя цифровой информации </t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45177</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Двустороння распечатка текста с любого носителя цифровой информации </t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>9</v>
+      </c>
+      <c r="D19" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45177</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Запись информации на флеш-карту до 350 Мб </t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>11</v>
+      </c>
+      <c r="D20" t="n">
+        <v>8.800000000000001</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45177</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Запись информации на флеш-карту от 350 Мб до 1 Гб </t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>20</v>
+      </c>
+      <c r="D21" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45177</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Распечатка текста с любого носителя цифровой информации </t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>28</v>
+      </c>
+      <c r="D22" t="n">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45182</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Распечатка текста с любого носителя цифровой информации (с предоставлением файла-вкладыша) </t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45182</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Набор и редактирование текста любой сложности (без распечатки) </t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
         <v>1.5</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45182</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Прием/отправка файлов по электронной почте (до 10 Мб) </t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45182</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Запись информации на флеш-карту от 350 Мб до 1 Гб </t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>6</v>
+      </c>
+      <c r="D26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45182</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Распечатка текста с любого носителя цифровой информации </t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>36</v>
+      </c>
+      <c r="D27" t="n">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45183</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Распечатка текста с любого носителя цифровой информации (с предоставлением файла-вкладыша) </t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>7</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45183</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Двустороння распечатка текста с любого носителя цифровой информации </t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45183</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Набор и редактирование (титульный лист) </t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45183</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Набор и редактирование текста любой сложности (без распечатки) </t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>3</v>
+      </c>
+      <c r="D31" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45183</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Запись информации на флеш-карту до 350 Мб </t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>5</v>
+      </c>
+      <c r="D32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45183</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Запись информации на флеш-карту от 350 Мб до 1 Гб </t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>2</v>
+      </c>
+      <c r="D33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45183</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Распечатка текста с любого носителя цифровой информации </t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>227</v>
+      </c>
+      <c r="D34" t="n">
+        <v>68.09999999999999</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45184</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Распечатка текста с любого носителя цифровой информации (с предоставлением файла-вкладыша) </t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>3</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45184</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Набор и редактирование текста любой сложности (без распечатки) </t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>2</v>
+      </c>
+      <c r="D36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45184</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Запись информации на флеш-карту до 350 Мб </t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45184</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Распечатка текста с любого носителя цифровой информации </t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>125</v>
+      </c>
+      <c r="D38" t="n">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45188</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Набор и редактирование текста любой сложности (без распечатки) </t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>28</v>
+      </c>
+      <c r="D39" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45188</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Прием/отправка файлов по электронной почте (до 10 Мб) </t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>3</v>
+      </c>
+      <c r="D40" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45189</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Распечатка текста с любого носителя цифровой информации (с предоставлением файла-вкладыша) </t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45189</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Набор и редактирование текста любой сложности (без распечатки) </t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>67</v>
+      </c>
+      <c r="D42" t="n">
+        <v>100.5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45189</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Прием/отправка файлов по электронной почте (до 10 Мб) </t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>4</v>
+      </c>
+      <c r="D43" t="n">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45189</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Запись информации на флеш-карту до 350 Мб </t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>3</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45189</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Распечатка текста с любого носителя цифровой информации </t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>149</v>
+      </c>
+      <c r="D45" t="n">
+        <v>44.7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45190</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Распечатка текста с любого носителя цифровой информации (с предоставлением файла-вкладыша) </t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>4</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45190</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Набор и редактирование текста любой сложности (без распечатки) </t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>10</v>
+      </c>
+      <c r="D47" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45190</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Прием/отправка файлов по электронной почте (до 10 Мб) </t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>3</v>
+      </c>
+      <c r="D48" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45190</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Запись информации на флеш-карту от 1 Гб до 4 Гб </t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>8</v>
+      </c>
+      <c r="D49" t="n">
+        <v>17.6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45190</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Распечатка текста с любого носителя цифровой информации </t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>443</v>
+      </c>
+      <c r="D50" t="n">
+        <v>132.9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45191</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Распечатка текста с любого носителя цифровой информации (с предоставлением файла-вкладыша) </t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>4</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45191</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Двустороння распечатка текста с любого носителя цифровой информации </t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>27</v>
+      </c>
+      <c r="D52" t="n">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45191</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Запись информации на флеш-карту от 350 Мб до 1 Гб </t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>4</v>
+      </c>
+      <c r="D53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45191</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Запись информации на флеш-карту от 1 Гб до 4 Гб </t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>6</v>
+      </c>
+      <c r="D54" t="n">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45191</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Распечатка текста с любого носителя цифровой информации </t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>362</v>
+      </c>
+      <c r="D55" t="n">
+        <v>108.6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr"/>
+      <c r="B56" t="inlineStr">
         <is>
           <t>Итого:</t>
         </is>
       </c>
-      <c r="C5">
-        <f>SUM(C2:C4)</f>
+      <c r="C56">
+        <f>SUM(C2:C55)</f>
         <v/>
       </c>
-      <c r="D5">
-        <f>SUM(D2:D4)</f>
+      <c r="D56">
+        <f>SUM(D2:D55)</f>
         <v/>
       </c>
     </row>
